--- a/Research/DSProj after rotcnt fix.xlsx
+++ b/Research/DSProj after rotcnt fix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/royfainaru_mail_tau_ac_il/Documents/III/Data Structures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85e67f25aabf7c7b/Desktop/Stuff/uni/Computer Science/mavnat/מטלות מעשיות/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{699EBCF0-18D9-4B8A-A856-FCBE691FFCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFE88476-527B-4FBB-931A-46E7F613F500}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{699EBCF0-18D9-4B8A-A856-FCBE691FFCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42489BBB-3672-4FE3-8E55-3579E8E6A294}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0AAED883-F8A6-4786-BB5F-E3CD2A147672}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>מספר סידורי i</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>הכנוסת ומחיקות לסיגורין</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -316,6 +319,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,18 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,7 +1408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.8508600108325483E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.7965066681305569E-5</c:v>
@@ -2438,7 +2432,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9481778745226753E-2"/>
+          <c:y val="4.9910985525814196E-2"/>
+          <c:w val="0.83856510169380927"/>
+          <c:h val="0.90017802894837162"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2472,6 +2476,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-IL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Q2'!$AX$4:$AX$13</c:f>
@@ -2587,6 +2635,107 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-IL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Q2'!$AX$4:$AX$13</c:f>
@@ -2702,6 +2851,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-IL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Q2'!$AX$4:$AX$13</c:f>
@@ -7942,6 +8135,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8241,7 +8438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697B5EEB-0A45-457A-9717-40013AAC5B21}">
   <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -8255,18 +8452,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="2:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
@@ -8485,8 +8682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95900F60-61A7-42E2-84C4-7BBE05F7A767}">
   <dimension ref="B1:AX27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BF17" sqref="BF17"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="B4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8494,15 +8691,13 @@
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="4" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="3"/>
-    <col min="7" max="12" width="8.7265625" style="18"/>
+    <col min="6" max="12" width="8.7265625" style="3"/>
     <col min="13" max="13" width="4.90625" style="3" customWidth="1"/>
     <col min="14" max="14" width="4.453125" style="10" customWidth="1"/>
     <col min="15" max="15" width="4.90625" style="3" customWidth="1"/>
     <col min="16" max="18" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="3"/>
-    <col min="21" max="28" width="8.7265625" style="18"/>
+    <col min="20" max="28" width="8.7265625" style="3"/>
     <col min="29" max="29" width="4.90625" style="3" customWidth="1"/>
     <col min="30" max="30" width="4.453125" style="10" customWidth="1"/>
     <col min="31" max="31" width="4.90625" style="3" customWidth="1"/>
@@ -8517,95 +8712,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AE1" s="8"/>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AT1" s="12" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AT1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
     </row>
     <row r="2" spans="2:50" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="12"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="T2" s="11"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="12"/>
       <c r="AE2" s="9"/>
       <c r="AF2" s="5" t="s">
         <v>9</v>
@@ -8619,13 +8814,13 @@
       <c r="AI2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AT2" s="13" t="s">
+      <c r="AT2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AU2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="AW2" s="5" t="s">
@@ -8633,37 +8828,37 @@
       </c>
     </row>
     <row r="3" spans="2:50" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T3" s="11"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="17"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="12"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5" t="s">
@@ -8675,9 +8870,9 @@
       <c r="AI3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
       <c r="AW3" s="5" t="s">
         <v>4</v>
       </c>
@@ -8696,13 +8891,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4">
         <v>2.2689999702076119E-6</v>
@@ -8710,22 +8905,22 @@
       <c r="Q4">
         <v>1.8846799929936728E-5</v>
       </c>
-      <c r="R4">
-        <v>5.8508600108325483E-5</v>
+      <c r="R4" t="s">
+        <v>23</v>
       </c>
       <c r="S4" s="4">
         <v>1</v>
       </c>
       <c r="T4" s="11"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4">
         <v>4.662666469812393E-7</v>
@@ -8770,13 +8965,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5">
         <v>4.1022999988247948E-6</v>
@@ -8790,15 +8985,15 @@
       <c r="S5" s="4">
         <v>2</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5">
@@ -8843,13 +9038,13 @@
       <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6">
@@ -8864,15 +9059,15 @@
       <c r="S6" s="4">
         <v>3</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6">
@@ -8917,13 +9112,13 @@
       <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7">
@@ -8938,15 +9133,15 @@
       <c r="S7" s="4">
         <v>4</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7">
@@ -8991,13 +9186,13 @@
       <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8">
@@ -9012,15 +9207,15 @@
       <c r="S8" s="4">
         <v>5</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8">
@@ -9065,13 +9260,13 @@
       <c r="E9" s="4">
         <v>6</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9">
@@ -9086,15 +9281,15 @@
       <c r="S9" s="4">
         <v>6</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9">
@@ -9139,13 +9334,13 @@
       <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10">
@@ -9160,15 +9355,15 @@
       <c r="S10" s="4">
         <v>7</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10">
@@ -9213,13 +9408,13 @@
       <c r="E11" s="4">
         <v>8</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11">
@@ -9234,15 +9429,15 @@
       <c r="S11" s="4">
         <v>8</v>
       </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11">
@@ -9287,13 +9482,13 @@
       <c r="E12" s="4">
         <v>9</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12">
@@ -9308,15 +9503,15 @@
       <c r="S12" s="4">
         <v>9</v>
       </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12">
@@ -9361,13 +9556,13 @@
       <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13">
@@ -9382,15 +9577,15 @@
       <c r="S13" s="4">
         <v>10</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13">
@@ -9423,95 +9618,95 @@
       </c>
     </row>
     <row r="15" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="12" t="s">
+      <c r="AF15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AT15" s="12" t="s">
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AT15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
     </row>
     <row r="16" spans="2:50" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="12"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="T16" s="11"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="12"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="5" t="s">
         <v>9</v>
@@ -9525,13 +9720,13 @@
       <c r="AI16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AT16" s="13" t="s">
+      <c r="AT16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AU16" s="13" t="s">
+      <c r="AU16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AV16" s="13" t="s">
+      <c r="AV16" s="14" t="s">
         <v>20</v>
       </c>
       <c r="AW16" s="5" t="s">
@@ -9539,37 +9734,37 @@
       </c>
     </row>
     <row r="17" spans="2:50" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T17" s="11"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="17"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="12"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5" t="s">
@@ -9581,9 +9776,9 @@
       <c r="AI17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
       <c r="AW17" s="5" t="s">
         <v>4</v>
       </c>
@@ -9596,13 +9791,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -9611,15 +9806,15 @@
         <v>1</v>
       </c>
       <c r="T18" s="11"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -9652,13 +9847,13 @@
         <v>2</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -9666,15 +9861,15 @@
       <c r="S19" s="4">
         <v>2</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="5"/>
@@ -9707,13 +9902,13 @@
       <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="5"/>
@@ -9722,15 +9917,15 @@
       <c r="S20" s="4">
         <v>3</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="5"/>
@@ -9763,13 +9958,13 @@
       <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="5"/>
@@ -9778,15 +9973,15 @@
       <c r="S21" s="4">
         <v>4</v>
       </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="5"/>
@@ -9819,13 +10014,13 @@
       <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="5"/>
@@ -9834,15 +10029,15 @@
       <c r="S22" s="4">
         <v>5</v>
       </c>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="5"/>
@@ -9875,13 +10070,13 @@
       <c r="E23" s="4">
         <v>6</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="5"/>
@@ -9890,15 +10085,15 @@
       <c r="S23" s="4">
         <v>6</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="5"/>
@@ -9931,13 +10126,13 @@
       <c r="E24" s="4">
         <v>7</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="5"/>
@@ -9946,15 +10141,15 @@
       <c r="S24" s="4">
         <v>7</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="5"/>
@@ -9987,13 +10182,13 @@
       <c r="E25" s="4">
         <v>8</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="5"/>
@@ -10002,15 +10197,15 @@
       <c r="S25" s="4">
         <v>8</v>
       </c>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="5"/>
@@ -10043,13 +10238,13 @@
       <c r="E26" s="4">
         <v>9</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="5"/>
@@ -10058,15 +10253,15 @@
       <c r="S26" s="4">
         <v>9</v>
       </c>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="5"/>
@@ -10099,13 +10294,13 @@
       <c r="E27" s="4">
         <v>10</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="5"/>
@@ -10114,15 +10309,15 @@
       <c r="S27" s="4">
         <v>10</v>
       </c>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="5"/>
@@ -10158,10 +10353,6 @@
     <mergeCell ref="AU2:AU3"/>
     <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="AT15:AW15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="AF1:AI1"/>
@@ -10176,6 +10367,10 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="P15:S15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
